--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -598,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,8 +621,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="17" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -630,8 +630,17 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -755,124 +764,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>485</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>290</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>485</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>290</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -881,120 +970,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1003,120 +1132,160 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1125,120 +1294,160 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1247,212 +1456,276 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v/>
-      </c>
-      <c r="Y6" t="n">
-        <v/>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v/>
+      </c>
+      <c r="B7" t="n">
+        <v/>
+      </c>
+      <c r="C7" t="n">
+        <v/>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
         <v/>
       </c>
     </row>
@@ -1481,68 +1754,92 @@
       <c r="H8" t="n">
         <v/>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -598,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,8 +630,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -639,8 +639,17 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="17" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -804,164 +813,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>485</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>07-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>485</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -970,160 +1059,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>07-October-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1132,160 +1261,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>08-October-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>07-October-2025</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>06-October-2025</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>08-October-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>07-October-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>06-October-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1294,160 +1463,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>06-October-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1456,146 +1665,186 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>10-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
+        <v/>
+      </c>
+      <c r="AL6" t="n">
+        <v/>
+      </c>
+      <c r="AM6" t="n">
+        <v/>
+      </c>
+      <c r="AN6" t="n">
+        <v/>
+      </c>
+      <c r="AO6" t="n">
+        <v/>
+      </c>
+      <c r="AP6" t="n">
+        <v/>
+      </c>
+      <c r="AQ6" t="n">
+        <v/>
+      </c>
+      <c r="AR6" t="n">
         <v/>
       </c>
     </row>
@@ -1626,106 +1875,146 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>09-October-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>08-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
+        <v/>
+      </c>
+      <c r="AL7" t="n">
+        <v/>
+      </c>
+      <c r="AM7" t="n">
+        <v/>
+      </c>
+      <c r="AN7" t="n">
+        <v/>
+      </c>
+      <c r="AO7" t="n">
+        <v/>
+      </c>
+      <c r="AP7" t="n">
+        <v/>
+      </c>
+      <c r="AQ7" t="n">
+        <v/>
+      </c>
+      <c r="AR7" t="n">
         <v/>
       </c>
     </row>
@@ -1778,68 +2067,92 @@
       <c r="Q8" t="n">
         <v/>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>07-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
+        <v/>
+      </c>
+      <c r="AL8" t="n">
+        <v/>
+      </c>
+      <c r="AM8" t="n">
+        <v/>
+      </c>
+      <c r="AN8" t="n">
+        <v/>
+      </c>
+      <c r="AO8" t="n">
+        <v/>
+      </c>
+      <c r="AP8" t="n">
+        <v/>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
+      <c r="AR8" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -598,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,8 +630,17 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
+    <col width="9" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -755,124 +764,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>540</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>09-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>541</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -881,226 +970,250 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+      <c r="AD3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" t="n">
+        <v/>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="n">
+        <v/>
+      </c>
+      <c r="AI3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1120,250 +1233,322 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1393,83 +1578,107 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -1499,66 +1708,106 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -306,6 +306,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -598,7 +623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,9 +636,9 @@
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -630,8 +655,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
     <col width="9" customWidth="1" min="29" max="29"/>
@@ -808,152 +833,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>539</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>540</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>100</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>09-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>541</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>99</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -970,233 +995,249 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>10-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v/>
-      </c>
-      <c r="AC3" t="n">
-        <v/>
-      </c>
-      <c r="AD3" t="n">
-        <v/>
-      </c>
-      <c r="AE3" t="n">
-        <v/>
-      </c>
-      <c r="AF3" t="n">
-        <v/>
-      </c>
-      <c r="AG3" t="n">
-        <v/>
-      </c>
-      <c r="AH3" t="n">
-        <v/>
-      </c>
-      <c r="AI3" t="n">
-        <v/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>10-October-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1262,87 +1303,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>10-October-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1408,87 +1449,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>10-October-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1552,73 +1593,89 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v/>
-      </c>
-      <c r="B7" t="n">
-        <v/>
-      </c>
-      <c r="C7" t="n">
-        <v/>
-      </c>
-      <c r="D7" t="n">
-        <v/>
-      </c>
-      <c r="E7" t="n">
-        <v/>
-      </c>
-      <c r="F7" t="n">
-        <v/>
-      </c>
-      <c r="G7" t="n">
-        <v/>
-      </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>10-October-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1682,132 +1739,278 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v/>
-      </c>
-      <c r="B8" t="n">
-        <v/>
-      </c>
-      <c r="C8" t="n">
-        <v/>
-      </c>
-      <c r="D8" t="n">
-        <v/>
-      </c>
-      <c r="E8" t="n">
-        <v/>
-      </c>
-      <c r="F8" t="n">
-        <v/>
-      </c>
-      <c r="G8" t="n">
-        <v/>
-      </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>10-October-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -331,6 +331,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -623,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,7 +670,7 @@
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
@@ -659,7 +684,7 @@
     <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="9" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
@@ -833,152 +858,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>539</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>101</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>10-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>100</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -995,1022 +1020,1248 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>10-October-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>13-October-2025</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>14-October-2025</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15-October-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,9 +679,9 @@
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -691,6 +691,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="17" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,164 +863,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>181</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>550</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>962</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>539</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1020,160 +1109,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1182,160 +1311,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1344,160 +1513,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>923</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -1506,160 +1715,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>81</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1668,160 +1917,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1830,160 +2119,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>13-October-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>116</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1992,253 +2321,309 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>14-October-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AB9" t="n">
+      <c r="AK9" t="n">
         <v/>
       </c>
-      <c r="AC9" t="n">
+      <c r="AL9" t="n">
         <v/>
       </c>
-      <c r="AD9" t="n">
+      <c r="AM9" t="n">
         <v/>
       </c>
-      <c r="AE9" t="n">
+      <c r="AN9" t="n">
         <v/>
       </c>
-      <c r="AF9" t="n">
+      <c r="AO9" t="n">
         <v/>
       </c>
-      <c r="AG9" t="n">
+      <c r="AP9" t="n">
         <v/>
       </c>
-      <c r="AH9" t="n">
+      <c r="AQ9" t="n">
         <v/>
       </c>
-      <c r="AI9" t="n">
+      <c r="AR9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>17-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
       </c>
       <c r="AB10" t="n">
         <v/>
@@ -2262,6 +2647,30 @@
         <v/>
       </c>
       <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="n">
+        <v/>
+      </c>
+      <c r="AL10" t="n">
+        <v/>
+      </c>
+      <c r="AM10" t="n">
+        <v/>
+      </c>
+      <c r="AN10" t="n">
+        <v/>
+      </c>
+      <c r="AO10" t="n">
+        <v/>
+      </c>
+      <c r="AP10" t="n">
+        <v/>
+      </c>
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
+      <c r="AR10" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,22 +684,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="17" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -863,244 +854,164 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>181</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>962</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1109,508 +1020,396 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>20-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+      <c r="AD3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" t="n">
+        <v/>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="n">
+        <v/>
+      </c>
+      <c r="AI3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>20-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1631,602 +1430,434 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>20-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>20-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>20-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2237,394 +1868,298 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>13-October-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>20-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>14-October-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AK9" t="n">
-        <v/>
-      </c>
-      <c r="AL9" t="n">
-        <v/>
-      </c>
-      <c r="AM9" t="n">
-        <v/>
-      </c>
-      <c r="AN9" t="n">
-        <v/>
-      </c>
-      <c r="AO9" t="n">
-        <v/>
-      </c>
-      <c r="AP9" t="n">
-        <v/>
-      </c>
-      <c r="AQ9" t="n">
-        <v/>
-      </c>
-      <c r="AR9" t="n">
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>20-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>16-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="AB10" t="n">
         <v/>
       </c>
@@ -2647,30 +2182,6 @@
         <v/>
       </c>
       <c r="AI10" t="n">
-        <v/>
-      </c>
-      <c r="AK10" t="n">
-        <v/>
-      </c>
-      <c r="AL10" t="n">
-        <v/>
-      </c>
-      <c r="AM10" t="n">
-        <v/>
-      </c>
-      <c r="AN10" t="n">
-        <v/>
-      </c>
-      <c r="AO10" t="n">
-        <v/>
-      </c>
-      <c r="AP10" t="n">
-        <v/>
-      </c>
-      <c r="AQ10" t="n">
-        <v/>
-      </c>
-      <c r="AR10" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,15 +682,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -814,602 +805,474 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>16-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>15-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>16-October-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
-      </c>
-      <c r="AB3" t="n">
-        <v/>
-      </c>
-      <c r="AC3" t="n">
-        <v/>
-      </c>
-      <c r="AD3" t="n">
-        <v/>
-      </c>
-      <c r="AE3" t="n">
-        <v/>
-      </c>
-      <c r="AF3" t="n">
-        <v/>
-      </c>
-      <c r="AG3" t="n">
-        <v/>
-      </c>
-      <c r="AH3" t="n">
-        <v/>
-      </c>
-      <c r="AI3" t="n">
-        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>16-October-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>16-October-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1429,435 +1292,363 @@
         <is>
           <t>0</t>
         </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>16-October-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>16-October-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>16-October-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>0</t>
@@ -1867,322 +1658,250 @@
         <is>
           <t>0</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>16-October-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>21-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>17-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>16-October-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -809,87 +809,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -931,87 +931,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1053,87 +1053,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1175,87 +1175,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1297,87 +1297,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1419,87 +1419,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1541,87 +1541,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1663,87 +1663,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1785,87 +1785,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>22-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>17-October-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +682,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -805,124 +814,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -931,120 +1020,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1053,120 +1182,160 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1175,120 +1344,160 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1297,120 +1506,160 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1419,120 +1668,160 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1541,120 +1830,160 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1663,120 +1992,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1785,120 +2154,160 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>23-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>338</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>6</t>
         </is>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,6 +691,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="17" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,164 +863,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1020,160 +1109,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1182,160 +1311,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1344,160 +1513,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1506,160 +1715,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1668,160 +1917,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1830,160 +2119,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1992,160 +2321,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2154,160 +2523,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>24-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>338</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>21-October-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>20-October-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>6</t>
         </is>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,22 +684,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="4" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="17" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -863,754 +854,562 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>22-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>152</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>101</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="n">
+        <v/>
+      </c>
+      <c r="AD3" t="n">
+        <v/>
+      </c>
+      <c r="AE3" t="n">
+        <v/>
+      </c>
+      <c r="AF3" t="n">
+        <v/>
+      </c>
+      <c r="AG3" t="n">
+        <v/>
+      </c>
+      <c r="AH3" t="n">
+        <v/>
+      </c>
+      <c r="AI3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1631,602 +1430,434 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2237,489 +1868,321 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>27-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>23-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>338</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>21-October-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>20-October-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,15 +682,6 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
-    <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -814,602 +805,474 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>22-October-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
-      </c>
-      <c r="AB3" t="n">
-        <v/>
-      </c>
-      <c r="AC3" t="n">
-        <v/>
-      </c>
-      <c r="AD3" t="n">
-        <v/>
-      </c>
-      <c r="AE3" t="n">
-        <v/>
-      </c>
-      <c r="AF3" t="n">
-        <v/>
-      </c>
-      <c r="AG3" t="n">
-        <v/>
-      </c>
-      <c r="AH3" t="n">
-        <v/>
-      </c>
-      <c r="AI3" t="n">
-        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1429,435 +1292,363 @@
         <is>
           <t>0</t>
         </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>0</t>
@@ -1867,322 +1658,250 @@
         <is>
           <t>0</t>
         </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>28-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>24-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>23-October-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -809,87 +809,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>27-October-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>24-October-2025</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -931,87 +931,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>27-October-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>24-October-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1053,87 +1053,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>27-October-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>24-October-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1175,87 +1175,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>27-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>24-October-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1297,87 +1297,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>27-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>24-October-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1419,112 +1419,112 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>24-October-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1541,87 +1541,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>27-October-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>24-October-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1663,87 +1663,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>27-October-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>24-October-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1785,87 +1785,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>29-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>27-October-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>24-October-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +682,15 @@
     <col width="4" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -805,124 +814,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -931,120 +1020,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1053,120 +1182,160 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1175,120 +1344,160 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1297,120 +1506,160 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1419,120 +1668,160 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1541,120 +1830,160 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1663,120 +1992,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1785,120 +2154,160 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30-October-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>6</t>
         </is>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,9 +661,9 @@
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="17" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -691,6 +691,15 @@
     <col width="4" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="17" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,164 +863,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>31-October-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-October-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1020,160 +1109,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>31-October-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>30-October-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1182,160 +1311,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>31-October-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>30-October-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1344,160 +1513,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>31-October-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>30-October-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1506,160 +1715,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>31-October-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>30-October-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1668,160 +1917,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>31-October-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>30-October-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1830,160 +2119,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>31-October-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>30-October-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1992,322 +2321,386 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>31-October-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>30-October-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>30-October-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>29-October-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>28-October-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>27-October-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>6</t>
         </is>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -665,7 +665,7 @@
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
@@ -809,112 +809,112 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-November-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>258</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>31-October-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>255</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>60</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>30-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>57</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -931,87 +931,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-November-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>398</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>117</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>30-October-2025</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1053,87 +1053,87 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>04-November-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>30-October-2025</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1175,87 +1175,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>04-November-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>30-October-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1297,87 +1297,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>04-November-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>30-October-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1419,87 +1419,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>04-November-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>30-October-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1541,87 +1541,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>04-November-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>30-October-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1663,87 +1663,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>04-November-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>30-October-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1785,87 +1785,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>04-November-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>03-November-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>30-October-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -675,13 +675,13 @@
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="17" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -894,37 +894,37 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>375</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>341</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>26</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1009,45 +1009,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v/>
+      </c>
+      <c r="W3" t="n">
+        <v/>
+      </c>
+      <c r="X3" t="n">
+        <v/>
+      </c>
+      <c r="Y3" t="n">
+        <v/>
+      </c>
+      <c r="Z3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -1131,45 +1115,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
+      </c>
+      <c r="Z4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -1253,45 +1221,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
+      </c>
+      <c r="Z5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -1375,45 +1327,29 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v/>
+      </c>
+      <c r="Z6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1497,45 +1433,29 @@
           <t>2</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
+      </c>
+      <c r="Z7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -1619,45 +1539,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -1741,45 +1645,29 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -1863,45 +1751,29 @@
           <t>6</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/synergy1.xlsx
+++ b/minio-report-tracker/xlxs/synergy1.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,15 +673,6 @@
     <col width="4" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
-    <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="17" customWidth="1" min="19" max="19"/>
-    <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -765,46 +756,6 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -887,46 +838,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>31-October-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1009,30 +920,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v/>
-      </c>
-      <c r="W3" t="n">
-        <v/>
-      </c>
-      <c r="X3" t="n">
-        <v/>
-      </c>
-      <c r="Y3" t="n">
-        <v/>
-      </c>
-      <c r="Z3" t="n">
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1115,30 +1002,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v/>
-      </c>
-      <c r="Y4" t="n">
-        <v/>
-      </c>
-      <c r="Z4" t="n">
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1221,30 +1084,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v/>
-      </c>
-      <c r="Y5" t="n">
-        <v/>
-      </c>
-      <c r="Z5" t="n">
-        <v/>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1327,30 +1166,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v/>
-      </c>
-      <c r="Y6" t="n">
-        <v/>
-      </c>
-      <c r="Z6" t="n">
-        <v/>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1433,30 +1248,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
-      </c>
-      <c r="Z7" t="n">
-        <v/>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1539,30 +1330,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
-        <v/>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1645,30 +1412,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1750,30 +1493,6 @@
         <is>
           <t>6</t>
         </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>
